--- a/report/603658安图生物/603658.xlsx
+++ b/report/603658安图生物/603658.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/603658安图生物/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/report/603658安图生物/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD08A13-539B-074A-BD14-244272FE9319}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2166C7-7337-204C-90CF-9C4521DB6657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-12520" windowWidth="51200" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="18980" yWindow="460" windowWidth="50080" windowHeight="28340" activeTab="1" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -387,6 +388,9 @@
                 <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -483,6 +487,9 @@
                 <c:pt idx="4">
                   <c:v>4.55</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.49</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -578,6 +585,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,6 +997,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,6 +1419,9 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="0.000">
                   <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
+                  <c:v>0.3609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576BF4A-84D9-4F42-AC28-2084AB25FD8F}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3867,14 +3883,30 @@
       <c r="A8" s="10">
         <v>2018</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="13"/>
+      <c r="B8" s="14">
+        <v>19.3</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.378</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6.49</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F8" s="14">
+        <v>5.63</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.26400000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="14"/>
@@ -4100,11 +4132,15 @@
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="5"/>
+      <c r="B35" s="14">
+        <v>5.694</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.3609</v>
+      </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.36546762589928061</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4244,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F802DA02-89C9-6543-A9F0-11329708A39B}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4363,12 +4399,24 @@
       <c r="A6" s="10">
         <v>2018</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="6">
+        <v>33.9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>24.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7.53</v>
+      </c>
+      <c r="E6" s="6">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.4</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">

--- a/report/603658安图生物/603658.xlsx
+++ b/report/603658安图生物/603658.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/report/603658安图生物/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2166C7-7337-204C-90CF-9C4521DB6657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F264351-21E0-7145-A9FA-C828AED93D07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="460" windowWidth="50080" windowHeight="28340" activeTab="1" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
+    <workbookView xWindow="-32500" yWindow="-4460" windowWidth="27880" windowHeight="17540" activeTab="2" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
     <sheet name="比率 记录" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>年度财务</t>
   </si>
@@ -128,6 +129,21 @@
   </si>
   <si>
     <t>收入同比</t>
+  </si>
+  <si>
+    <t>2018年年报。毛利率下降。利润增长26%，略低于预期。</t>
+  </si>
+  <si>
+    <t>报告期</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>市值</t>
+  </si>
+  <si>
+    <t>机构数</t>
   </si>
 </sst>
 </file>
@@ -4280,8 +4296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F802DA02-89C9-6543-A9F0-11329708A39B}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4323,7 +4339,9 @@
       <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="12">
+        <v>43551</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="10">
@@ -4346,6 +4364,9 @@
       </c>
       <c r="G3">
         <v>2.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4577,4 +4598,198 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0748FDE6-5CBB-CD44-A062-91A3D25BEC62}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3116642</v>
+      </c>
+      <c r="D2" s="3">
+        <v>161912731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B3">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6758780</v>
+      </c>
+      <c r="D3" s="3">
+        <v>375720600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1599804</v>
+      </c>
+      <c r="D4" s="3">
+        <v>73242500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B5">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12118391</v>
+      </c>
+      <c r="D5" s="3">
+        <v>522302700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7943340</v>
+      </c>
+      <c r="D6" s="3">
+        <v>373178100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B7">
+        <v>151</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25808275</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1373516000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14577410</v>
+      </c>
+      <c r="D8" s="3">
+        <v>787471700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B9">
+        <v>206</v>
+      </c>
+      <c r="C9" s="3">
+        <v>28352410</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2337940000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>11586996</v>
+      </c>
+      <c r="D10" s="3">
+        <v>726157000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>13506165</v>
+      </c>
+      <c r="D11" s="3">
+        <v>660316400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>